--- a/Mediolan_miejsca_odnosniki.xlsx
+++ b/Mediolan_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C817C1-EBE4-44DE-98CF-323E57A1FEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FB8CB4-780B-42DE-8601-AF9450F6EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
   <si>
     <t>Miejsce</t>
   </si>
@@ -142,13 +142,7 @@
     <t>['https://www.youtube.com/watch?v=Rhir0xpmMe4']</t>
   </si>
   <si>
-    <t>['https://www.youtube.com/watch?v=oNE8QzAUYBI']</t>
-  </si>
-  <si>
     <t>['https://www.youtube.com/watch?v=YsfHbGu7j-8']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=oNE8QzAUYBI', 'https://www.youtube.com/watch?v=YsfHbGu7j-8']</t>
   </si>
   <si>
     <t>['https://www.youtube.com/watch?v=qjqmOM3G5DI&amp;t=828s']</t>
@@ -780,6 +774,39 @@
   </si>
   <si>
     <t xml:space="preserve">La Crota - Trattoria con Pizza, położona w sercu Mediolanu, to wyjątkowy lokal serwujący kuchnię włoską, lombardzką i północnowłoską. W bliskiej odległości od słynnych Colonne di San Lorenzo, restauracja oferuje szeroki wybór win idealnie komponujących się z daniami. </t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=Rhir0xpmMe4', 'https://www.youtube.com/watch?v=_UXRcxO5jX4', 'https://www.youtube.com/watch?v=YsfHbGu7j-8', 'https://www.youtube.com/watch?v=nWz9o3eIVXY', 'https://www.youtube.com/watch?v=fDLWeGMVouQ', 'https://www.youtube.com/watch?v=QQOsGLaf3Gs', 'https://www.youtube.com/watch?v=hbB_HMdvD4A', 'https://www.youtube.com/watch?v=aWwO1VC17pk', 'https://www.youtube.com/watch?v=4ZPVjH3R9zo', 'https://www.youtube.com/watch?v=_jYJtOrNJ7w', 'https://www.youtube.com/watch?v=M2guxQBpygw']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=Rhir0xpmMe4', 'https://www.youtube.com/watch?v=_UXRcxO5jX4', 'https://www.youtube.com/watch?v=YsfHbGu7j-8', 'https://www.youtube.com/watch?v=nWz9o3eIVXY', 'https://www.youtube.com/watch?v=fDLWeGMVouQ', 'https://www.youtube.com/watch?v=QQOsGLaf3Gs', 'https://www.youtube.com/watch?v=D-OEApEzSIg', 'https://www.youtube.com/watch?v=aWwO1VC17pk', 'https://www.youtube.com/watch?v=4ZPVjH3R9zo', 'https://www.youtube.com/watch?v=M2guxQBpygw']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=oNE8QzAUYBI', 'https://www.youtube.com/watch?v=_jYJtOrNJ7w']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=YsfHbGu7j-8', 'https://www.youtube.com/watch?v=QQOsGLaf3Gs', 'https://www.youtube.com/watch?v=aWwO1VC17pk', 'https://www.youtube.com/watch?v=_jYJtOrNJ7w', 'https://www.youtube.com/watch?v=M2guxQBpygw']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=qFyjItmxgvY', 'https://www.youtube.com/watch?v=YsfHbGu7j-8', 'https://www.youtube.com/watch?v=fDLWeGMVouQ', 'https://www.youtube.com/watch?v=QQOsGLaf3Gs', 'https://www.youtube.com/watch?v=D-OEApEzSIg', 'https://www.youtube.com/watch?v=hbB_HMdvD4A', 'https://www.youtube.com/watch?v=aWwO1VC17pk', 'https://www.youtube.com/watch?v=4ZPVjH3R9zo', 'https://www.youtube.com/watch?v=_jYJtOrNJ7w', 'https://www.youtube.com/watch?v=M2guxQBpygw']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=_UXRcxO5jX4', 'https://www.youtube.com/watch?v=YsfHbGu7j-8', 'https://www.youtube.com/watch?v=QQOsGLaf3Gs', 'https://www.youtube.com/watch?v=aWwO1VC17pk', 'https://www.youtube.com/watch?v=4ZPVjH3R9zo', 'https://www.youtube.com/watch?v=_jYJtOrNJ7w']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=YsfHbGu7j-8', 'https://www.youtube.com/watch?v=vQebZIyrrB8', 'https://www.youtube.com/watch?v=nWz9o3eIVXY', 'https://www.youtube.com/watch?v=M2guxQBpygw']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=_UXRcxO5jX4', 'https://www.youtube.com/watch?v=YsfHbGu7j-8', 'https://www.youtube.com/watch?v=QQOsGLaf3Gs', 'https://www.youtube.com/watch?v=aWwO1VC17pk', 'https://www.youtube.com/watch?v=oNE8QzAUYBI']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=fDLWeGMVouQ', 'https://www.youtube.com/watch?v=qjqmOM3G5DI&amp;t=828s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=qFyjItmxgvY', 'https://www.youtube.com/watch?v=QQOsGLaf3Gs', 'https://www.youtube.com/watch?v=YsfHbGu7j-8', 'https://www.youtube.com/watch?v=D-OEApEzSIg']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=4ZPVjH3R9zo', 'https://www.youtube.com/watch?v=YsfHbGu7j-8']</t>
   </si>
 </sst>
 </file>
@@ -1149,11 +1176,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="74.109375" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1201,13 +1232,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>45.464097600000002</v>
@@ -1216,7 +1247,7 @@
         <v>9.1919264999999992</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>4.8</v>
@@ -1225,16 +1256,16 @@
         <v>150717</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1242,13 +1273,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>45.465843399999997</v>
@@ -1257,7 +1288,7 @@
         <v>9.1899400999999994</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H3">
         <v>4.7</v>
@@ -1266,16 +1297,16 @@
         <v>96793</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1283,13 +1314,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>45.4780807</v>
@@ -1298,7 +1329,7 @@
         <v>9.123996</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>4.7</v>
@@ -1307,16 +1338,16 @@
         <v>87313</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1324,13 +1355,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>45.472098099999997</v>
@@ -1339,7 +1370,7 @@
         <v>9.1772242999999989</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H5">
         <v>4.5999999999999996</v>
@@ -1348,16 +1379,16 @@
         <v>75830</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1365,13 +1396,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>45.4704762</v>
@@ -1380,7 +1411,7 @@
         <v>9.1793324999999992</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>4.7</v>
@@ -1389,16 +1420,16 @@
         <v>73357</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1406,13 +1437,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>45.467402100000001</v>
@@ -1421,7 +1452,7 @@
         <v>9.1895512000000004</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H7">
         <v>4.7</v>
@@ -1430,16 +1461,16 @@
         <v>28197</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1447,13 +1478,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>45.474448899999999</v>
@@ -1462,7 +1493,7 @@
         <v>9.1993653999999996</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8">
         <v>4.4000000000000004</v>
@@ -1471,16 +1502,16 @@
         <v>24211</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1488,13 +1519,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>45.462808000000003</v>
@@ -1503,7 +1534,7 @@
         <v>9.1707477999999991</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>4.5</v>
@@ -1512,16 +1543,16 @@
         <v>24024</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1529,13 +1560,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>45.464945899999996</v>
@@ -1544,7 +1575,7 @@
         <v>9.1861862999999992</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H10">
         <v>4.4000000000000004</v>
@@ -1553,16 +1584,16 @@
         <v>22283</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1570,13 +1601,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>45.463131399999988</v>
@@ -1585,7 +1616,7 @@
         <v>9.1911568999999993</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H11">
         <v>4.5999999999999996</v>
@@ -1594,16 +1625,16 @@
         <v>18643</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1611,13 +1642,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>45.465963000000002</v>
@@ -1626,7 +1657,7 @@
         <v>9.1709620999999988</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H12">
         <v>4.5999999999999996</v>
@@ -1635,16 +1666,16 @@
         <v>14411</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1652,13 +1683,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>45.465828599999988</v>
@@ -1667,7 +1698,7 @@
         <v>9.1915578</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H13">
         <v>4.5</v>
@@ -1676,16 +1707,16 @@
         <v>12700</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1693,13 +1724,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>45.4443804</v>
@@ -1708,7 +1739,7 @@
         <v>9.2053000999999988</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H14">
         <v>4.2</v>
@@ -1717,16 +1748,16 @@
         <v>9388</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1734,13 +1765,13 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>45.472233000000003</v>
@@ -1749,7 +1780,7 @@
         <v>9.1736069999999987</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H15">
         <v>4.5</v>
@@ -1758,16 +1789,16 @@
         <v>7537</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1775,13 +1806,13 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>45.466466099999998</v>
@@ -1790,7 +1821,7 @@
         <v>9.189972599999999</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H16">
         <v>4.3</v>
@@ -1799,16 +1830,16 @@
         <v>5866</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1816,13 +1847,13 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>45.463408000000001</v>
@@ -1831,7 +1862,7 @@
         <v>9.1901685999999998</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H17">
         <v>4.5</v>
@@ -1840,16 +1871,16 @@
         <v>5707</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1857,13 +1888,13 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>45.4845641</v>
@@ -1872,7 +1903,7 @@
         <v>9.1926071999999994</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H18">
         <v>4.5999999999999996</v>
@@ -1881,16 +1912,16 @@
         <v>5064</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1901,10 +1932,10 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>45.476703999999998</v>
@@ -1913,7 +1944,7 @@
         <v>9.1894875000000003</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19">
         <v>4.0999999999999996</v>
@@ -1922,16 +1953,16 @@
         <v>3003</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1939,13 +1970,13 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20">
         <v>45.447491999999997</v>
@@ -1954,7 +1985,7 @@
         <v>9.1554995999999988</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H20">
         <v>4.5</v>
@@ -1963,16 +1994,16 @@
         <v>3002</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1980,13 +2011,13 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>45.485618799999997</v>
@@ -1995,7 +2026,7 @@
         <v>9.1903936999999996</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H21">
         <v>4.5999999999999996</v>
@@ -2004,16 +2035,16 @@
         <v>2445</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2021,13 +2052,13 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22">
         <v>45.473469700000003</v>
@@ -2036,7 +2067,7 @@
         <v>9.1728953000000004</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22">
         <v>4.3</v>
@@ -2045,16 +2076,16 @@
         <v>2350</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2065,10 +2096,10 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <v>45.4516329</v>
@@ -2077,7 +2108,7 @@
         <v>9.1649081999999993</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H23">
         <v>4.5999999999999996</v>
@@ -2086,16 +2117,16 @@
         <v>2061</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2103,13 +2134,13 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>45.462911599999998</v>
@@ -2118,7 +2149,7 @@
         <v>9.1837801999999993</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H24">
         <v>4.2</v>
@@ -2127,16 +2158,16 @@
         <v>1768</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2144,13 +2175,13 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>45.462026299999998</v>
@@ -2159,7 +2190,7 @@
         <v>9.1854104999999997</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H25">
         <v>4.0999999999999996</v>
@@ -2168,16 +2199,16 @@
         <v>1409</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2185,13 +2216,13 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <v>45.449202</v>
@@ -2200,7 +2231,7 @@
         <v>9.177581</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H26">
         <v>4.7</v>
@@ -2209,16 +2240,16 @@
         <v>870</v>
       </c>
       <c r="J26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2229,10 +2260,10 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27">
         <v>45.458832299999997</v>
@@ -2241,7 +2272,7 @@
         <v>9.1794800999999993</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H27">
         <v>4.2</v>
@@ -2250,16 +2281,16 @@
         <v>568</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
